--- a/管理/素材用エクセル/Card_Proto.xlsx
+++ b/管理/素材用エクセル/Card_Proto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E1999-20B2-44C6-9A42-AEBB230E7D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2315ACF-4AC8-4ED6-8135-3C0BA9FA0495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -227,6 +227,14 @@
   </si>
   <si>
     <t>アーマーブレイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -696,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
-  <dimension ref="A1:W168"/>
+  <dimension ref="A1:Y168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -711,14 +719,14 @@
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
     <col min="18" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -747,49 +755,55 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -859,8 +873,14 @@
       <c r="W2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -930,8 +950,14 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -998,8 +1024,14 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1066,8 +1098,14 @@
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1134,8 +1172,14 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1164,10 +1208,10 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1176,14 +1220,14 @@
         <v>0</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
@@ -1205,8 +1249,14 @@
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1235,13 +1285,13 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1276,8 +1326,14 @@
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1306,20 +1362,20 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -1347,8 +1403,14 @@
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1377,17 +1439,17 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
@@ -1418,8 +1480,14 @@
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1445,10 +1513,10 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1486,8 +1554,14 @@
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1513,10 +1587,10 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1554,8 +1628,14 @@
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="I15" s="5"/>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.4">
@@ -1974,12 +2054,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:K158 M75:M84 K39:K40 K44:K64 M44:M64 M22:M40 K15 K11:K12 M15 M1:M12">
+  <conditionalFormatting sqref="K75:K158 M75:M84 K39:K40 K44:K64 M44:M64 M22:M40 K15 M11:M12 M15 O1:O12">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29 D38 J165:T168 E32:F35 G29:H35 J75:W164 E75:I168 E36:H40 E44:W64 E22:H28 I22:W40 E1:G12 H2:I5 E11:H12 E15:W15 H6:H10 I6:I12 J1:W12">
+  <conditionalFormatting sqref="E29:F29 D38 J165:T168 E32:F35 G29:H35 J75:W164 E75:I168 E36:H40 E44:W64 E22:H28 I22:W40 E1:G12 H2:I5 E11:H12 E15:W15 H6:H10 I6:I12 L1:Y12 J2:K12">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
